--- a/loop_diagrams.xlsx
+++ b/loop_diagrams.xlsx
@@ -451,7 +451,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -460,8 +460,8 @@
     <col width="59.28515625" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
     <col width="31.140625" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
     <col width="84.5703125" customWidth="1" style="3" min="4" max="4"/>
-    <col width="9.140625" customWidth="1" style="3" min="5" max="10"/>
-    <col width="9.140625" customWidth="1" style="3" min="11" max="16384"/>
+    <col width="9.140625" customWidth="1" style="3" min="5" max="11"/>
+    <col width="9.140625" customWidth="1" style="3" min="12" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,8 +529,8 @@
     <col width="40.28515625" bestFit="1" customWidth="1" style="3" min="1" max="2"/>
     <col width="31.140625" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
     <col width="84.5703125" customWidth="1" style="3" min="4" max="4"/>
-    <col width="9.140625" customWidth="1" style="3" min="5" max="10"/>
-    <col width="9.140625" customWidth="1" style="3" min="11" max="16384"/>
+    <col width="9.140625" customWidth="1" style="3" min="5" max="11"/>
+    <col width="9.140625" customWidth="1" style="3" min="12" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -26133,8 +26133,8 @@
     <col width="40.28515625" bestFit="1" customWidth="1" style="3" min="1" max="2"/>
     <col width="31.140625" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
     <col width="84.5703125" customWidth="1" style="3" min="4" max="4"/>
-    <col width="9.140625" customWidth="1" style="3" min="5" max="10"/>
-    <col width="9.140625" customWidth="1" style="3" min="11" max="16384"/>
+    <col width="9.140625" customWidth="1" style="3" min="5" max="11"/>
+    <col width="9.140625" customWidth="1" style="3" min="12" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
